--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1626641.520117823</v>
+        <v>1716676.106946356</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18084029.22468236</v>
+        <v>16612500.99216497</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1513771.15649779</v>
+        <v>278692.0725916865</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5963247.088761903</v>
+        <v>6353240.225110522</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
         <v>424.2958575201043</v>
@@ -671,7 +673,7 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>220.1767649846776</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>36.89684983821897</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>54.03165799456922</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -835,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +867,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>132.6655140201549</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
@@ -908,10 +910,10 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>184.4123868042959</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>342.1000678496623</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1054,25 +1056,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>84.90443974051983</v>
+        <v>51.12198362548111</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1108,19 +1110,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>411.2596290929544</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>216.0818361054472</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>27.9735834668218</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1309,7 +1311,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -1348,7 +1350,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>231.1360967980516</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1373,19 +1375,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869773002</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>416.5922564103792</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1436,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="12">
@@ -1528,13 +1530,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>8.909245336627306</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1543,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>7.264602967362666</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,7 +1587,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>284.085953048278</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1594,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1609,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>112.6086726980698</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791314346</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.8153550780014</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1664,16 +1666,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>414.951038786483</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1771,7 +1773,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>64.90507698037659</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>135.4170480006335</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2011,16 +2013,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>14.14416275345333</v>
+        <v>90.30617524481251</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2087,7 +2089,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932889</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -2248,16 +2250,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>90.30617524481254</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2482,19 +2484,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>64.90507698037602</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>195.2236746356136</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2722,16 +2724,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>110.985505974208</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -2779,7 +2781,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>13.0131344328856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2956,7 +2958,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>93.90692437986576</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2965,7 +2967,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3016,7 +3018,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3196,16 +3198,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>84.01976803536532</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>54.49360828358961</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3269,7 +3271,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773006</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
@@ -3439,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3661,25 +3663,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>39.57637241135472</v>
+        <v>126.7641785672301</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3746,13 +3748,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
@@ -3794,13 +3796,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>291.6417213917218</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3895,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>189.900432531801</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>137.2470510215437</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3913,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225391</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3977,10 +3979,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>118.7150082428542</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -3995,7 +3997,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791316482</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4037,13 +4039,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633442</v>
       </c>
     </row>
     <row r="45">
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4147,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>105.266624278749</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>550.1887779922017</v>
+        <v>1167.069156190556</v>
       </c>
       <c r="C2" t="n">
-        <v>516.086709216029</v>
+        <v>738.4874819278245</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>309.9058076650929</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>280.1714668637921</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>256.3444413134039</v>
       </c>
       <c r="G2" t="n">
         <v>33.94366860160834</v>
@@ -4328,19 +4330,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="K2" t="n">
         <v>453.9965675465116</v>
       </c>
-      <c r="K2" t="n">
-        <v>687.9235674375537</v>
-      </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
         <v>687.9235674375537</v>
@@ -4355,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1659.913884789287</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1400.691582106304</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V2" t="n">
-        <v>1400.691582106304</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W2" t="n">
-        <v>1399.876531557741</v>
+        <v>1612.716505715692</v>
       </c>
       <c r="X2" t="n">
-        <v>980.7340681370521</v>
+        <v>1597.614446335406</v>
       </c>
       <c r="Y2" t="n">
-        <v>976.4883484771095</v>
+        <v>1189.32832263506</v>
       </c>
     </row>
     <row r="3">
@@ -4404,25 +4406,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1024.341879988165</v>
+        <v>825.2595462651987</v>
       </c>
       <c r="C4" t="n">
-        <v>851.7801684713901</v>
+        <v>825.2595462651987</v>
       </c>
       <c r="D4" t="n">
-        <v>685.9021756729128</v>
+        <v>659.3815534667214</v>
       </c>
       <c r="E4" t="n">
-        <v>516.14417192365</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>67.00315850392299</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>341.7616130750586</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>341.7616130750586</v>
+        <v>761.43086230084</v>
       </c>
       <c r="M4" t="n">
-        <v>761.8145120199619</v>
+        <v>761.43086230084</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O4" t="n">
         <v>1181.483761245743</v>
@@ -4513,25 +4515,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U4" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V4" t="n">
-        <v>1541.760039068461</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="W4" t="n">
-        <v>1269.733634654753</v>
+        <v>1244.497835670078</v>
       </c>
       <c r="X4" t="n">
-        <v>1024.341879988165</v>
+        <v>1244.497835670078</v>
       </c>
       <c r="Y4" t="n">
-        <v>1024.341879988165</v>
+        <v>1017.078164984186</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>628.8817772575625</v>
+        <v>574.0056065428942</v>
       </c>
       <c r="C5" t="n">
-        <v>594.7797084813899</v>
+        <v>135.8631337263175</v>
       </c>
       <c r="D5" t="n">
-        <v>562.9103276962385</v>
+        <v>103.9937529411661</v>
       </c>
       <c r="E5" t="n">
-        <v>533.1759868949378</v>
+        <v>74.25941213986535</v>
       </c>
       <c r="F5" t="n">
-        <v>509.3489613445495</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="G5" t="n">
-        <v>323.0738231583921</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>485.6870740423951</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>1181.865694717426</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>1181.865694717426</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>1181.865694717426</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1181.865694717426</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1805.966478762205</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.4652647208</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="U5" t="n">
-        <v>1437.961127397434</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="V5" t="n">
-        <v>1075.344177331261</v>
+        <v>2159.002379407683</v>
       </c>
       <c r="W5" t="n">
-        <v>1074.529126782698</v>
+        <v>1754.146924818717</v>
       </c>
       <c r="X5" t="n">
-        <v>1059.427067402413</v>
+        <v>1408.591300728149</v>
       </c>
       <c r="Y5" t="n">
-        <v>651.1409437020662</v>
+        <v>1000.305177027802</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174122</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326467</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>674.5331706342567</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>674.5331706342567</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>674.5331706342567</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>674.5331706342567</v>
       </c>
       <c r="P6" t="n">
-        <v>1580.010651986078</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>289.4637326948305</v>
+        <v>871.468736440936</v>
       </c>
       <c r="C7" t="n">
-        <v>289.4637326948305</v>
+        <v>698.907024924161</v>
       </c>
       <c r="D7" t="n">
-        <v>289.4637326948305</v>
+        <v>533.0290321256837</v>
       </c>
       <c r="E7" t="n">
-        <v>119.7057289455678</v>
+        <v>533.0290321256837</v>
       </c>
       <c r="F7" t="n">
-        <v>119.7057289455678</v>
+        <v>356.3219780874399</v>
       </c>
       <c r="G7" t="n">
-        <v>119.7057289455678</v>
+        <v>190.7307031132676</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>137.012071754167</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>411.7705263253026</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>829.9804080932637</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1143.991608255757</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1586.250411413401</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2005.919660639183</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2353.426554609524</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.201508179229</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2340.960139477225</v>
       </c>
       <c r="T7" t="n">
-        <v>1292.062614956869</v>
+        <v>2095.080693055681</v>
       </c>
       <c r="U7" t="n">
-        <v>1013.629614209975</v>
+        <v>2095.080693055681</v>
       </c>
       <c r="V7" t="n">
-        <v>726.6741060804052</v>
+        <v>1808.125184926111</v>
       </c>
       <c r="W7" t="n">
-        <v>726.6741060804052</v>
+        <v>1536.098780512403</v>
       </c>
       <c r="X7" t="n">
-        <v>481.2823514138177</v>
+        <v>1290.707025845815</v>
       </c>
       <c r="Y7" t="n">
-        <v>481.2823514138177</v>
+        <v>1063.287355159923</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1267.502422415565</v>
+        <v>1789.512437976118</v>
       </c>
       <c r="C8" t="n">
-        <v>1233.400353639393</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D8" t="n">
-        <v>1201.530972854241</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E8" t="n">
-        <v>1171.796632052941</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F8" t="n">
-        <v>743.9292024621484</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>342.5313710854123</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4805,7 +4807,7 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
         <v>1293.567921177998</v>
@@ -4817,7 +4819,7 @@
         <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>1954.407975719776</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
         <v>1954.407975719776</v>
@@ -4829,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2366.341725488303</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>2107.11942280532</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V8" t="n">
-        <v>2107.11942280532</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="W8" t="n">
-        <v>1702.263968216353</v>
+        <v>2449.178548755904</v>
       </c>
       <c r="X8" t="n">
-        <v>1687.161908836068</v>
+        <v>2434.076489375619</v>
       </c>
       <c r="Y8" t="n">
-        <v>1682.916189176125</v>
+        <v>2215.812008461025</v>
       </c>
     </row>
     <row r="9">
@@ -4884,13 +4886,13 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>404.0232146552985</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="L9" t="n">
-        <v>404.0232146552985</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="M9" t="n">
-        <v>404.0232146552985</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="N9" t="n">
         <v>1064.863269197077</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1043.799427915185</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>871.2377163984103</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>705.359723599933</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>535.6017198506702</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>358.8946658124264</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>193.303390838254</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4984,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2510.819457729425</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2264.94001130788</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1986.507010560985</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1753.036205714468</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1481.00980130076</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1235.618046634173</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1235.618046634173</v>
+        <v>1160.715522056492</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>929.6350617424117</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>491.492588925835</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>491.492588925835</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>491.492588925835</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>70.69232992545206</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>70.69232992545206</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H11" t="n">
-        <v>70.69232992545206</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>505.53022800551</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>505.53022800551</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L11" t="n">
-        <v>1100.154487746229</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M11" t="n">
-        <v>1100.154487746229</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N11" t="n">
-        <v>1100.154487746229</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="O11" t="n">
-        <v>1969.814302084555</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="P11" t="n">
-        <v>2798.124176917952</v>
+        <v>4723.664187456951</v>
       </c>
       <c r="Q11" t="n">
-        <v>3344.622962876546</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>3513.777027629603</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>3430.12515381344</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>3210.057926686479</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>2950.835624003495</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>2588.218673937322</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>2183.363219348355</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>1764.220755927666</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>1355.93463222732</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>576.4472855438848</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>469.9908243805272</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>374.9005355270804</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>280.7801208540341</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>197.3962824701957</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>112.0111927363796</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>96.33921371304966</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>420.897538679262</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K12" t="n">
-        <v>1075.603585304986</v>
+        <v>809.0580335016145</v>
       </c>
       <c r="L12" t="n">
-        <v>1075.603585304986</v>
+        <v>809.0580335016145</v>
       </c>
       <c r="M12" t="n">
-        <v>1075.603585304986</v>
+        <v>809.0580335016145</v>
       </c>
       <c r="N12" t="n">
-        <v>1075.603585304986</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O12" t="n">
-        <v>1075.603585304986</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P12" t="n">
-        <v>1075.603585304986</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q12" t="n">
-        <v>1616.342523937061</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R12" t="n">
-        <v>1733.515302031401</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1670.059864479784</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1539.881220810386</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1363.544673810354</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1164.427155872353</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>979.1044016055473</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>824.2369658444272</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>697.751186623648</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>758.3515566755764</v>
+        <v>1017.756527079651</v>
       </c>
       <c r="C13" t="n">
-        <v>585.7898451588013</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D13" t="n">
-        <v>419.911852360324</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E13" t="n">
-        <v>419.911852360324</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F13" t="n">
-        <v>243.2047983220802</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>77.61352334790789</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H13" t="n">
-        <v>77.61352334790789</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>156.8552257172819</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>431.6136802884175</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>849.8235620563786</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1309.307429237292</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1751.566232394936</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2171.235481620718</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2518.742375591059</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2686.935150455392</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2665.517329160764</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2506.27596045876</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2260.396514037216</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>1981.963513290321</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V13" t="n">
-        <v>1695.008005160751</v>
+        <v>1726.993304878934</v>
       </c>
       <c r="W13" t="n">
-        <v>1422.981600747043</v>
+        <v>1454.966900465226</v>
       </c>
       <c r="X13" t="n">
-        <v>1177.589846080455</v>
+        <v>1209.575145798638</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.1701753945636</v>
+        <v>1209.575145798638</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1013.286935558575</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>899.5408015201205</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>899.5408015201205</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>899.5408015201205</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>471.6733719293282</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>70.27554055259206</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>70.27554055259206</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>505.53022800551</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1339.880519963688</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1339.880519963688</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>1339.880519963688</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>1969.814302084555</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>1969.814302084555</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>2798.124176917952</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>3344.622962876546</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>3513.777027629603</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>3513.777027629603</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>3293.709800502642</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>3034.487497819659</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>2671.870547753485</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>2267.015093164518</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>1847.872629743829</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>1439.586506043483</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>576.4472855438848</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>469.9908243805272</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>374.9005355270804</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>280.7801208540341</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>197.3962824701957</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>112.0111927363796</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>96.33921371304966</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J15" t="n">
-        <v>420.897538679262</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K15" t="n">
-        <v>1101.631058749639</v>
+        <v>426.819165236992</v>
       </c>
       <c r="L15" t="n">
-        <v>1101.631058749639</v>
+        <v>426.819165236992</v>
       </c>
       <c r="M15" t="n">
-        <v>1101.631058749639</v>
+        <v>1625.543999329491</v>
       </c>
       <c r="N15" t="n">
-        <v>1101.631058749639</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O15" t="n">
-        <v>1101.631058749639</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P15" t="n">
-        <v>1101.631058749639</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q15" t="n">
-        <v>1616.342523937061</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R15" t="n">
-        <v>1733.515302031401</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1670.059864479784</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1539.881220810386</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1363.544673810354</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1164.427155872353</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>979.1044016055473</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>824.2369658444272</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>697.751186623648</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>779.7693779702045</v>
+        <v>1004.611946844417</v>
       </c>
       <c r="C16" t="n">
-        <v>607.2076664534294</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="D16" t="n">
-        <v>441.3296736549521</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E16" t="n">
-        <v>375.7689898363899</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F16" t="n">
-        <v>375.7689898363899</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>210.1777148622176</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H16" t="n">
-        <v>70.27554055259206</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>156.8552257172819</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>431.6136802884175</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>849.8235620563786</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1309.307429237292</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1751.566232394936</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2171.235481620718</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2518.742375591059</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2686.935150455392</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2686.935150455392</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2527.693781753389</v>
+        <v>2560.717731908614</v>
       </c>
       <c r="T16" t="n">
-        <v>2281.814335331844</v>
+        <v>2314.838285487069</v>
       </c>
       <c r="U16" t="n">
-        <v>2003.381334584949</v>
+        <v>2036.405284740174</v>
       </c>
       <c r="V16" t="n">
-        <v>1716.425826455379</v>
+        <v>1749.449776610605</v>
       </c>
       <c r="W16" t="n">
-        <v>1444.399422041671</v>
+        <v>1477.423372196896</v>
       </c>
       <c r="X16" t="n">
-        <v>1199.007667375083</v>
+        <v>1232.031617530309</v>
       </c>
       <c r="Y16" t="n">
-        <v>971.5879966891916</v>
+        <v>1004.611946844417</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771588</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
         <v>391.8077842004234</v>
@@ -5513,49 +5515,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>537.5155277236975</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L17" t="n">
-        <v>537.5155277236975</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M17" t="n">
-        <v>1694.563362934248</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N17" t="n">
-        <v>2820.294346370695</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993933</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
         <v>2955.199618136696</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3955.973997051464</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>3849.517535888106</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>3754.427247034659</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>3660.306832361613</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>3576.922993977775</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>3491.537904243959</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>3449.802252060171</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>3475.865925220629</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>3475.865925220629</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>3475.865925220629</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>3475.865925220629</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M18" t="n">
-        <v>3475.865925220629</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="N18" t="n">
-        <v>4709.693196780936</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="O18" t="n">
-        <v>4995.86923544464</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="P18" t="n">
-        <v>4995.86923544464</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q18" t="n">
-        <v>4995.86923544464</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R18" t="n">
-        <v>5113.04201353898</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>5049.586575987363</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>4919.407932317965</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>4743.071385317933</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>4543.953867379932</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>4358.631113113126</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>4203.763677352006</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>4077.277898131227</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5659,13 +5661,13 @@
         <v>282.1391483292483</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5759,43 +5761,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>147.8711371056732</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>828.6046571760505</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L21" t="n">
-        <v>828.6046571760505</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M21" t="n">
-        <v>828.6046571760505</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N21" t="n">
-        <v>828.6046571760505</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O21" t="n">
-        <v>828.6046571760505</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P21" t="n">
-        <v>1648.327823655249</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q21" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>790.3368563937634</v>
+        <v>3346.878440713113</v>
       </c>
       <c r="C22" t="n">
-        <v>617.7751448769883</v>
+        <v>3174.316729196338</v>
       </c>
       <c r="D22" t="n">
-        <v>451.897152078511</v>
+        <v>3008.438736397861</v>
       </c>
       <c r="E22" t="n">
-        <v>282.1391483292483</v>
+        <v>2838.680732648598</v>
       </c>
       <c r="F22" t="n">
-        <v>282.1391483292483</v>
+        <v>2661.973678610354</v>
       </c>
       <c r="G22" t="n">
-        <v>282.1391483292483</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I22" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J22" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K22" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>5094.802844496297</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>4848.923398074752</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>4570.490397327858</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878938</v>
+        <v>4283.534889198289</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.96690046523</v>
+        <v>4011.50848478458</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.575145798642</v>
+        <v>3766.116730117992</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1554751127505</v>
+        <v>3538.697059432101</v>
       </c>
     </row>
     <row r="23">
@@ -5990,22 +5992,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q23" t="n">
         <v>5113.04201353898</v>
@@ -6063,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K24" t="n">
-        <v>782.9943603411569</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L24" t="n">
-        <v>782.9943603411569</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M24" t="n">
-        <v>782.9943603411569</v>
+        <v>414.500552094942</v>
       </c>
       <c r="N24" t="n">
-        <v>782.9943603411569</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O24" t="n">
-        <v>782.9943603411569</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P24" t="n">
-        <v>1602.717526820355</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3233.142235235647</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C25" t="n">
-        <v>3060.580523718872</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D25" t="n">
-        <v>2894.702530920395</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E25" t="n">
-        <v>2724.944527171132</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="F25" t="n">
-        <v>2724.944527171132</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="G25" t="n">
-        <v>2724.944527171132</v>
+        <v>307.7236983989667</v>
       </c>
       <c r="H25" t="n">
-        <v>2585.042352861507</v>
+        <v>167.8215240893413</v>
       </c>
       <c r="I25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>4932.38282354235</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>4735.187192597286</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>4456.754191850391</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>4169.798683720822</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>3897.772279307113</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>3652.380524640526</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>3424.960853954634</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6233,19 +6235,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3603.973621145286</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4284.732138705584</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6300,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J27" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K27" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L27" t="n">
-        <v>452.8828383974496</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M27" t="n">
-        <v>1648.327823655249</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N27" t="n">
-        <v>1648.327823655249</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="O27" t="n">
-        <v>1648.327823655249</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="P27" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q27" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1004.611946844417</v>
+        <v>1039.174348374283</v>
       </c>
       <c r="C28" t="n">
-        <v>832.0502353276421</v>
+        <v>866.6126368575082</v>
       </c>
       <c r="D28" t="n">
-        <v>666.1722425291648</v>
+        <v>700.7346440590309</v>
       </c>
       <c r="E28" t="n">
-        <v>496.4142387799021</v>
+        <v>530.9766403097681</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>354.2695862715243</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>1196.430565563404</v>
+        <v>1230.99296709327</v>
       </c>
     </row>
     <row r="29">
@@ -6537,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J30" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K30" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>452.8828383974496</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M30" t="n">
-        <v>452.8828383974496</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P30" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q30" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1017.756527079655</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>845.1948155628801</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>679.3168227644028</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1209.575145798642</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>852.6195887352237</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>852.6195887352237</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2009.667423945775</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>3135.398407382222</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>4115.578073952528</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K33" t="n">
-        <v>4481.15777025722</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L33" t="n">
-        <v>4481.15777025722</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>4481.15777025722</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N33" t="n">
-        <v>4481.15777025722</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O33" t="n">
-        <v>4481.15777025722</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P33" t="n">
-        <v>4481.15777025722</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>949.5782250957668</v>
+        <v>915.9519976190925</v>
       </c>
       <c r="C34" t="n">
-        <v>777.0165135789917</v>
+        <v>743.3902861023174</v>
       </c>
       <c r="D34" t="n">
-        <v>611.1385207805145</v>
+        <v>577.5122933038401</v>
       </c>
       <c r="E34" t="n">
-        <v>441.3805170312517</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="F34" t="n">
-        <v>356.5120644702766</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G34" t="n">
-        <v>190.9207894961043</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.502628878951</v>
+        <v>2663.876401402276</v>
       </c>
       <c r="T34" t="n">
-        <v>2451.623182457406</v>
+        <v>2417.996954980732</v>
       </c>
       <c r="U34" t="n">
-        <v>2173.190181710511</v>
+        <v>2139.563954233837</v>
       </c>
       <c r="V34" t="n">
-        <v>1886.234673580942</v>
+        <v>1852.608446104267</v>
       </c>
       <c r="W34" t="n">
-        <v>1614.208269167233</v>
+        <v>1580.582041690559</v>
       </c>
       <c r="X34" t="n">
-        <v>1368.816514500646</v>
+        <v>1335.190287023971</v>
       </c>
       <c r="Y34" t="n">
-        <v>1141.396843814754</v>
+        <v>1107.77061633808</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D35" t="n">
         <v>1654.847790009657</v>
@@ -6923,61 +6925,61 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L35" t="n">
-        <v>1371.865819681875</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M35" t="n">
-        <v>2528.913654892426</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
         <v>2955.199618136697</v>
@@ -7011,28 +7013,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J36" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K36" t="n">
-        <v>809.0580335016147</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L36" t="n">
-        <v>1763.601082312719</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M36" t="n">
-        <v>1763.601082312719</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N36" t="n">
-        <v>1763.601082312719</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O36" t="n">
-        <v>1763.601082312719</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P36" t="n">
-        <v>1763.601082312719</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q36" t="n">
         <v>1765.500601749588</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2683.3639582443</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7160,64 +7162,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>537.5155277236975</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L38" t="n">
-        <v>537.5155277236975</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M38" t="n">
-        <v>1694.563362934248</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N38" t="n">
-        <v>2820.294346370695</v>
+        <v>3137.402081918264</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>4117.581748488571</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>4945.891623321967</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7257,13 +7259,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M39" t="n">
-        <v>531.6733301892817</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N39" t="n">
-        <v>1765.500601749588</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="O39" t="n">
         <v>1765.500601749588</v>
@@ -7309,22 +7311,22 @@
         <v>790.3368563937634</v>
       </c>
       <c r="C40" t="n">
-        <v>617.7751448769883</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="D40" t="n">
-        <v>451.897152078511</v>
+        <v>624.4588635952861</v>
       </c>
       <c r="E40" t="n">
-        <v>282.1391483292483</v>
+        <v>624.4588635952861</v>
       </c>
       <c r="F40" t="n">
-        <v>242.1630145804051</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1661.74217171516</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>1223.599698898584</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>787.6899140730281</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>787.6899140730281</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>359.8224844822358</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>359.8224844822358</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H41" t="n">
-        <v>70.69232992545209</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I41" t="n">
-        <v>70.27554055259209</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>505.53022800551</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>1339.880519963688</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L41" t="n">
-        <v>1339.880519963688</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M41" t="n">
-        <v>1339.880519963688</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N41" t="n">
-        <v>1339.880519963688</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O41" t="n">
-        <v>1969.814302084556</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P41" t="n">
-        <v>2798.124176917953</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q41" t="n">
-        <v>3344.622962876547</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R41" t="n">
-        <v>3513.777027629604</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>3430.125153813441</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>3210.05792668648</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>3210.05792668648</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>3210.05792668648</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>2915.470329321104</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>2496.327865900415</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2088.041742200068</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>576.4472855438848</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>469.9908243805272</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>374.9005355270804</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>280.7801208540341</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>197.3962824701957</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>112.0111927363796</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>70.27554055259209</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>70.27554055259209</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>394.8338655188044</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1075.567385589182</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L42" t="n">
-        <v>1075.603585304986</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M42" t="n">
-        <v>1075.603585304986</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N42" t="n">
-        <v>1075.603585304986</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O42" t="n">
-        <v>1075.603585304986</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P42" t="n">
-        <v>1075.603585304986</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q42" t="n">
-        <v>1616.342523937061</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1733.515302031401</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1670.059864479784</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1539.881220810386</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1363.544673810354</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1164.427155872353</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>979.1044016055473</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>824.2369658444272</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>697.751186623648</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>779.7693779702045</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>779.7693779702045</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>641.1359930999583</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>641.1359930999583</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>464.4289390617146</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>298.8376640875422</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>158.9354897779168</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>70.27554055259209</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>156.855225717282</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>431.6136802884175</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>849.8235620563786</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1309.307429237292</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1751.566232394936</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2171.235481620718</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2518.742375591059</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2686.935150455392</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2686.935150455392</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2527.693781753389</v>
+        <v>2700.681281130898</v>
       </c>
       <c r="T43" t="n">
-        <v>2281.814335331844</v>
+        <v>2454.801834709353</v>
       </c>
       <c r="U43" t="n">
-        <v>2003.381334584949</v>
+        <v>2176.368833962459</v>
       </c>
       <c r="V43" t="n">
-        <v>1716.425826455379</v>
+        <v>1889.413325832889</v>
       </c>
       <c r="W43" t="n">
-        <v>1444.399422041671</v>
+        <v>1617.386921419181</v>
       </c>
       <c r="X43" t="n">
-        <v>1199.007667375083</v>
+        <v>1371.995166752593</v>
       </c>
       <c r="Y43" t="n">
-        <v>971.5879966891916</v>
+        <v>1144.575496066702</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1742.776640031726</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1622.862490291469</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1622.862490291469</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1189.087745449764</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>761.220315858972</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>359.8224844822358</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H44" t="n">
-        <v>70.69232992545209</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I44" t="n">
-        <v>70.27554055259209</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>505.53022800551</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>505.53022800551</v>
+        <v>557.2627364873778</v>
       </c>
       <c r="L44" t="n">
-        <v>505.53022800551</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="M44" t="n">
-        <v>505.53022800551</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="N44" t="n">
-        <v>1100.15448774623</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O44" t="n">
-        <v>1969.814302084556</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P44" t="n">
-        <v>2798.124176917953</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q44" t="n">
-        <v>3344.622962876547</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R44" t="n">
-        <v>3513.777027629604</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>3430.125153813441</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>3210.05792668648</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>2950.835624003496</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>2588.218673937323</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>2588.218673937323</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>2169.076210516634</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2169.076210516634</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>576.4472855438848</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>469.9908243805272</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>374.9005355270804</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>280.7801208540341</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>197.3962824701957</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>112.0111927363796</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>70.27554055259209</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>70.27554055259209</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>205.9437709666586</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>205.9437709666586</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1075.603585304986</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1075.603585304986</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1075.603585304986</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1075.603585304986</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1075.603585304986</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1616.342523937061</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1733.515302031401</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1670.059864479784</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1539.881220810386</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1363.544673810354</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1164.427155872353</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>979.1044016055473</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>824.2369658444272</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>697.751186623648</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>950.1701753945636</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>777.6084638777885</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>611.7304710793112</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>441.9724673300485</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>265.2654132918046</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>265.2654132918046</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>158.9354897779168</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>70.27554055259209</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>156.855225717282</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>431.6136802884175</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>849.8235620563786</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1309.307429237292</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1751.566232394936</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2171.235481620718</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2518.742375591059</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2686.935150455392</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2665.517329160764</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2506.27596045876</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2260.396514037216</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>1981.963513290321</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1695.008005160751</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1422.981600747043</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1177.589846080455</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>950.1701753945636</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7976,22 +7978,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -8052,28 +8054,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8134,22 +8136,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>33.39342414375217</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558611246</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8289,19 +8291,19 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="M6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>385.078041118802</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>317.1830304671648</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,22 +8455,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="L8" t="n">
         <v>145.5272350047205</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8532,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8693,22 +8695,22 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>600.6305653946655</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>878.4442569074008</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>222.4482437666393</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8766,10 +8768,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>966.1036042908828</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,16 +8932,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>636.2967496170379</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9000,22 +9002,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>141.3703054748453</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9024,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -9176,16 +9178,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>756.3484258820586</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9249,22 +9251,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1133.8392149967</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>289.0667057209139</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9407,7 +9409,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9474,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>46.0710069039329</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>687.6096162327044</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,13 +9640,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
@@ -9653,10 +9655,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9711,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>164.4273484133669</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,22 +9883,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
-        <v>687.6348662225241</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,19 +9950,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M27" t="n">
-        <v>1207.52018712909</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10185,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>318.286930314673</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -10364,13 +10366,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>519.9105708963853</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>60.59188538505123</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10683,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.918706501888892</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -10820,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>756.3484258820586</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>168.8387779969844</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,16 +10907,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M39" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -11057,22 +11059,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O41" t="n">
-        <v>636.2967496170388</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11081,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -11142,7 +11144,7 @@
         <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11157,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11294,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>459.5978749662608</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>600.6305653946662</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>878.444256907401</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11318,7 +11320,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>137.0386165798652</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
-        <v>878.444256907401</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -23261,19 +23263,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>6.996498884505172</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23416,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>161.92684906498</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>80.50874676570875</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23495,13 +23497,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>321.1523753903411</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>103.1553467313935</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>22.23190701434984</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23899,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>160.795820744408</v>
+        <v>84.63380825304883</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24136,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>48.19697732171669</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24370,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>22.86827275269539</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>48.19697732171565</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24610,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>52.94985625022261</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>212.1323395461472</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -24844,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>74.15349933190436</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>90.92021546249602</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>103.1553467313937</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25362,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>135.3636110865066</v>
+        <v>48.17580493063124</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25634,13 +25636,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25682,13 +25684,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>109.1651786513552</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25786,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>26.97216184894887</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627294</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25865,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>315.0460398455567</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25925,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>33.23652828778023</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>526597.0038753836</v>
+        <v>537165.6058947798</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>424540.8635626677</v>
+        <v>554537.631225601</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>424540.8635626677</v>
+        <v>554537.6312256011</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>554537.631225601</v>
+        <v>554537.6312256011</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>554537.6312256011</v>
+        <v>554537.631225601</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>554537.631225601</v>
+        <v>554537.6312256011</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>424540.8635626677</v>
+        <v>554537.631225601</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>424540.8635626677</v>
+        <v>554537.6312256011</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>442321.5389095869</v>
+        <v>442321.538909587</v>
       </c>
       <c r="C2" t="n">
-        <v>442321.5389095868</v>
+        <v>442321.538909587</v>
       </c>
       <c r="D2" t="n">
-        <v>442321.5389095868</v>
+        <v>442321.538909587</v>
       </c>
       <c r="E2" t="n">
-        <v>332763.482491062</v>
+        <v>434657.5069133156</v>
       </c>
       <c r="F2" t="n">
-        <v>332763.4824910619</v>
+        <v>434657.5069133157</v>
       </c>
       <c r="G2" t="n">
-        <v>434657.5069133155</v>
+        <v>434657.5069133156</v>
       </c>
       <c r="H2" t="n">
-        <v>434657.5069133157</v>
+        <v>434657.5069133156</v>
       </c>
       <c r="I2" t="n">
         <v>434657.5069133156</v>
@@ -26350,10 +26352,10 @@
         <v>434657.5069133156</v>
       </c>
       <c r="O2" t="n">
-        <v>332763.482491062</v>
+        <v>434657.5069133156</v>
       </c>
       <c r="P2" t="n">
-        <v>332763.482491062</v>
+        <v>434657.5069133156</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501635</v>
       </c>
       <c r="D3" t="n">
-        <v>75551.22640712859</v>
+        <v>11527.59554998258</v>
       </c>
       <c r="E3" t="n">
-        <v>62978.7739803372</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>109583.6359157429</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877267</v>
       </c>
       <c r="L3" t="n">
-        <v>61556.6282799684</v>
+        <v>9392.301726622163</v>
       </c>
       <c r="M3" t="n">
-        <v>52564.36305084753</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>199828.8262465156</v>
       </c>
       <c r="C4" t="n">
-        <v>199828.8262465156</v>
+        <v>163226.8987932457</v>
       </c>
       <c r="D4" t="n">
         <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>52059.72245889485</v>
+        <v>68000.69828933274</v>
       </c>
       <c r="F4" t="n">
-        <v>52059.72245889484</v>
+        <v>68000.69828933275</v>
       </c>
       <c r="G4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933278</v>
       </c>
       <c r="H4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933277</v>
       </c>
       <c r="I4" t="n">
         <v>68000.69828933279</v>
       </c>
       <c r="J4" t="n">
+        <v>68000.69828933279</v>
+      </c>
+      <c r="K4" t="n">
+        <v>68000.69828933279</v>
+      </c>
+      <c r="L4" t="n">
         <v>68000.69828933281</v>
       </c>
-      <c r="K4" t="n">
-        <v>68000.69828933281</v>
-      </c>
-      <c r="L4" t="n">
-        <v>68000.69828933279</v>
-      </c>
       <c r="M4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933278</v>
       </c>
       <c r="N4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933274</v>
       </c>
       <c r="O4" t="n">
-        <v>52059.72245889486</v>
+        <v>68000.69828933274</v>
       </c>
       <c r="P4" t="n">
-        <v>52059.72245889486</v>
+        <v>68000.69828933275</v>
       </c>
     </row>
     <row r="5">
@@ -26470,22 +26472,22 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800262</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>53409.41081996997</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>53409.41081996997</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>53409.41081996998</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>53409.41081996998</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,25 +26521,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>40876.62386613905</v>
+        <v>40876.62386613919</v>
       </c>
       <c r="C6" t="n">
-        <v>183067.9245258489</v>
+        <v>140550.6584133224</v>
       </c>
       <c r="D6" t="n">
-        <v>135921.1466880267</v>
+        <v>199944.777545173</v>
       </c>
       <c r="E6" t="n">
-        <v>164315.5752318599</v>
+        <v>106583.4607971406</v>
       </c>
       <c r="F6" t="n">
-        <v>227294.3492121971</v>
+        <v>288938.5700181904</v>
       </c>
       <c r="G6" t="n">
-        <v>179354.9341024472</v>
+        <v>288938.5700181903</v>
       </c>
       <c r="H6" t="n">
-        <v>288938.5700181904</v>
+        <v>288938.5700181903</v>
       </c>
       <c r="I6" t="n">
         <v>288938.5700181903</v>
@@ -26546,22 +26548,22 @@
         <v>177924.1046732001</v>
       </c>
       <c r="K6" t="n">
+        <v>235892.7153794177</v>
+      </c>
+      <c r="L6" t="n">
+        <v>279546.2682915682</v>
+      </c>
+      <c r="M6" t="n">
+        <v>136738.3990802027</v>
+      </c>
+      <c r="N6" t="n">
         <v>288938.5700181904</v>
       </c>
-      <c r="L6" t="n">
-        <v>227381.9417382219</v>
-      </c>
-      <c r="M6" t="n">
-        <v>236374.2069673428</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>288938.5700181903</v>
       </c>
-      <c r="O6" t="n">
-        <v>227294.3492121971</v>
-      </c>
       <c r="P6" t="n">
-        <v>227294.3492121971</v>
+        <v>288938.5700181904</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>878.4442569074008</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>878.4442569074008</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>878.444256907401</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>878.444256907401</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483598</v>
       </c>
       <c r="D4" t="n">
-        <v>243.2193490877526</v>
+        <v>37.1103742393928</v>
       </c>
       <c r="E4" t="n">
-        <v>210.9290502995438</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>399.8162464773444</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483598</v>
       </c>
       <c r="L4" t="n">
-        <v>243.2193490877526</v>
+        <v>37.1103742393928</v>
       </c>
       <c r="M4" t="n">
-        <v>210.9290502995438</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483598</v>
       </c>
       <c r="L4" t="n">
-        <v>243.2193490877526</v>
+        <v>37.1103742393928</v>
       </c>
       <c r="M4" t="n">
-        <v>210.9290502995438</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>399.8162464773444</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
         <v>7.254829457195569</v>
@@ -27391,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>177.2070880782912</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>180.9697050174728</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -27442,10 +27444,10 @@
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>114.0287657172009</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -27594,16 +27596,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>151.4204390281189</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27628,10 +27630,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>212.9714662586729</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27670,16 +27672,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>72.85097093682009</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>53.59871282600939</v>
+        <v>87.38116894104812</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,19 +27830,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.77694568710427</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>188.1214263578959</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>161.9268490649754</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28029,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28068,7 +28070,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>52.94985625022224</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -34696,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -34772,28 +34774,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34854,22 +34856,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>33.39342414375217</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558611246</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,19 +35011,19 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="M6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35030,13 +35032,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>385.078041118802</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>317.1830304671648</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,22 +35175,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="L8" t="n">
         <v>145.5272350047205</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35252,7 +35254,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,7 +35263,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35413,25 +35415,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>600.6305653946655</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>878.4442569074008</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>222.4482437666393</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35498,7 +35500,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>966.1036042908828</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35507,10 +35509,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35571,7 +35573,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,28 +35649,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>636.2967496170379</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458549</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>141.3703054748453</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35744,10 +35746,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35808,7 +35810,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O17" t="n">
-        <v>756.3484258820586</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35969,22 +35971,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1133.8392149967</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.29017329324</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>289.0667057209139</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36127,7 +36129,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36194,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>46.0710069039329</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>687.6096162327044</v>
@@ -36215,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36291,13 +36293,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36360,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
@@ -36373,10 +36375,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638367</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>164.4273484133669</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36601,22 +36603,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
-        <v>687.6348662225241</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M27" t="n">
-        <v>1207.52018712909</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36689,13 +36691,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>318.286930314673</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -37084,13 +37086,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>519.9105708963853</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>60.59188538505123</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.918706501888892</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>756.3484258820586</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>168.8387779969844</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,16 +37627,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M39" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O41" t="n">
-        <v>636.2967496170388</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458549</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37862,7 +37864,7 @@
         <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37877,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>459.5978749662608</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>600.6305653946662</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>878.444256907401</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458549</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>137.0386165798652</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
-        <v>878.444256907401</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1716676.106946356</v>
+        <v>1716150.924577325</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16612500.99216497</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916865</v>
+        <v>278692.0725916863</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>162.7211585357412</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -673,7 +673,7 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>220.1767649846776</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>54.03165799456922</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>39.18244142736991</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>70.4767802309064</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>342.1000678496623</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>187.2334323013656</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>51.12198362548111</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1110,7 +1110,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>195.5642451008322</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
@@ -1144,7 +1144,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>216.0818361054472</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27.9735834668218</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1350,16 +1350,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>166.3197703738368</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869773002</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800052</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1438,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1530,7 +1530,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>8.909245336627306</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1545,7 +1545,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -1584,19 +1584,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>270.0173373818681</v>
       </c>
       <c r="V13" t="n">
-        <v>284.085953048278</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1609,25 +1609,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791314346</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.8153550780014</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1666,16 +1666,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.8069000430771</v>
+        <v>400.8069000430768</v>
       </c>
       <c r="X14" t="n">
-        <v>414.951038786483</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1776,16 +1776,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>135.4170480006335</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1852,7 +1852,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>429.436997393288</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2013,7 +2013,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>90.30617524481251</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>184.6723321165226</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2089,7 +2089,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932889</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -2256,7 +2256,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>82.14201637551361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2304,7 +2304,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2484,19 +2484,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>64.90507698037602</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2727,10 +2727,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>110.985505974208</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2967,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3198,13 +3198,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>54.49360828358961</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3271,7 +3271,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869773006</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800599</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3523,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3663,16 +3663,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>126.7641785672301</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
@@ -3681,7 +3681,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3723,7 +3723,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>148.8597651552994</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.900432531801</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225391</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3997,7 +3997,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791316482</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633442</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4197,7 +4197,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>20.73696989209195</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1167.069156190556</v>
+        <v>283.7392223402076</v>
       </c>
       <c r="C2" t="n">
-        <v>738.4874819278245</v>
+        <v>119.3744157384487</v>
       </c>
       <c r="D2" t="n">
-        <v>309.9058076650929</v>
+        <v>87.50503495329731</v>
       </c>
       <c r="E2" t="n">
-        <v>280.1714668637921</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
-        <v>256.3444413134039</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
         <v>33.94366860160834</v>
@@ -4330,7 +4330,7 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
         <v>453.9965675465116</v>
@@ -4345,7 +4345,7 @@
         <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4360,22 +4360,22 @@
         <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1613.531556264254</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V2" t="n">
-        <v>1613.531556264254</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="W2" t="n">
-        <v>1612.716505715692</v>
+        <v>1133.426975905747</v>
       </c>
       <c r="X2" t="n">
-        <v>1597.614446335406</v>
+        <v>714.2845124850579</v>
       </c>
       <c r="Y2" t="n">
-        <v>1189.32832263506</v>
+        <v>710.0387928251154</v>
       </c>
     </row>
     <row r="3">
@@ -4412,19 +4412,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>825.2595462651987</v>
+        <v>600.9454964518109</v>
       </c>
       <c r="C4" t="n">
-        <v>825.2595462651987</v>
+        <v>428.3837849350358</v>
       </c>
       <c r="D4" t="n">
-        <v>659.3815534667214</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="G4" t="n">
         <v>262.5057921365585</v>
@@ -4488,52 +4488,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>761.43086230084</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>761.43086230084</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>1181.483761245743</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1516.524240083786</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U4" t="n">
-        <v>1516.524240083786</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V4" t="n">
-        <v>1516.524240083786</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W4" t="n">
-        <v>1244.497835670078</v>
+        <v>846.3372511183984</v>
       </c>
       <c r="X4" t="n">
-        <v>1244.497835670078</v>
+        <v>600.9454964518109</v>
       </c>
       <c r="Y4" t="n">
-        <v>1017.078164984186</v>
+        <v>600.9454964518109</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>574.0056065428942</v>
+        <v>1379.860631332895</v>
       </c>
       <c r="C5" t="n">
-        <v>135.8631337263175</v>
+        <v>1345.758562556722</v>
       </c>
       <c r="D5" t="n">
-        <v>103.9937529411661</v>
+        <v>909.8487777311664</v>
       </c>
       <c r="E5" t="n">
-        <v>74.25941213986535</v>
+        <v>476.0740328894616</v>
       </c>
       <c r="F5" t="n">
-        <v>50.43238658947714</v>
+        <v>452.2470073390734</v>
       </c>
       <c r="G5" t="n">
-        <v>50.43238658947714</v>
+        <v>50.84917596233727</v>
       </c>
       <c r="H5" t="n">
-        <v>50.43238658947714</v>
+        <v>50.84917596233727</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947714</v>
+        <v>50.43238658947728</v>
       </c>
       <c r="J5" t="n">
-        <v>485.6870740423951</v>
+        <v>485.6870740423952</v>
       </c>
       <c r="K5" t="n">
-        <v>1109.787858087175</v>
+        <v>1109.787858087176</v>
       </c>
       <c r="L5" t="n">
-        <v>1181.865694717426</v>
+        <v>1109.787858087176</v>
       </c>
       <c r="M5" t="n">
-        <v>1181.865694717426</v>
+        <v>1109.787858087176</v>
       </c>
       <c r="N5" t="n">
-        <v>1181.865694717426</v>
+        <v>1181.865694717431</v>
       </c>
       <c r="O5" t="n">
-        <v>1181.865694717426</v>
+        <v>1805.966478762212</v>
       </c>
       <c r="P5" t="n">
-        <v>1805.966478762205</v>
+        <v>1805.966478762212</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.4652647208</v>
+        <v>2352.465264720807</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473857</v>
+        <v>2521.619329473864</v>
       </c>
       <c r="S5" t="n">
-        <v>2521.619329473857</v>
+        <v>2450.430662573958</v>
       </c>
       <c r="T5" t="n">
-        <v>2521.619329473857</v>
+        <v>2230.363435446997</v>
       </c>
       <c r="U5" t="n">
-        <v>2521.619329473857</v>
+        <v>2230.363435446997</v>
       </c>
       <c r="V5" t="n">
-        <v>2159.002379407683</v>
+        <v>2230.363435446997</v>
       </c>
       <c r="W5" t="n">
-        <v>1754.146924818717</v>
+        <v>1825.50798085803</v>
       </c>
       <c r="X5" t="n">
-        <v>1408.591300728149</v>
+        <v>1406.365517437341</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000.305177027802</v>
+        <v>1402.119797777398</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>556.6041315807699</v>
+        <v>556.6041315807701</v>
       </c>
       <c r="C6" t="n">
-        <v>450.1476704174122</v>
+        <v>450.1476704174124</v>
       </c>
       <c r="D6" t="n">
-        <v>355.0573815639655</v>
+        <v>355.0573815639656</v>
       </c>
       <c r="E6" t="n">
-        <v>260.9369668909192</v>
+        <v>260.9369668909193</v>
       </c>
       <c r="F6" t="n">
-        <v>177.5531285070808</v>
+        <v>177.5531285070809</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326467</v>
+        <v>92.16803877326481</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947714</v>
+        <v>50.43238658947728</v>
       </c>
       <c r="I6" t="n">
-        <v>50.43238658947714</v>
+        <v>76.49605974993489</v>
       </c>
       <c r="J6" t="n">
-        <v>50.43238658947714</v>
+        <v>401.0543847161472</v>
       </c>
       <c r="K6" t="n">
-        <v>50.43238658947714</v>
+        <v>1025.155168760929</v>
       </c>
       <c r="L6" t="n">
-        <v>674.5331706342567</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>674.5331706342567</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>674.5331706342567</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>674.5331706342567</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
         <v>1055.760431341871</v>
@@ -4688,10 +4688,10 @@
         <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>804.3938118813123</v>
+        <v>804.3938118813124</v>
       </c>
       <c r="Y6" t="n">
-        <v>677.9080326605331</v>
+        <v>677.9080326605332</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>871.468736440936</v>
+        <v>617.1474966153748</v>
       </c>
       <c r="C7" t="n">
-        <v>698.907024924161</v>
+        <v>444.5857850985997</v>
       </c>
       <c r="D7" t="n">
-        <v>533.0290321256837</v>
+        <v>444.5857850985997</v>
       </c>
       <c r="E7" t="n">
-        <v>533.0290321256837</v>
+        <v>444.5857850985997</v>
       </c>
       <c r="F7" t="n">
-        <v>356.3219780874399</v>
+        <v>444.5857850985997</v>
       </c>
       <c r="G7" t="n">
-        <v>190.7307031132676</v>
+        <v>278.9945101244274</v>
       </c>
       <c r="H7" t="n">
-        <v>139.0923358148018</v>
+        <v>139.0923358148019</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947714</v>
+        <v>50.43238658947728</v>
       </c>
       <c r="J7" t="n">
-        <v>137.012071754167</v>
+        <v>137.0120717541672</v>
       </c>
       <c r="K7" t="n">
-        <v>411.7705263253026</v>
+        <v>411.7705263253027</v>
       </c>
       <c r="L7" t="n">
-        <v>829.9804080932637</v>
+        <v>829.9804080932638</v>
       </c>
       <c r="M7" t="n">
-        <v>1143.991608255757</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>1586.250411413401</v>
+        <v>1731.723078431822</v>
       </c>
       <c r="O7" t="n">
-        <v>2005.919660639183</v>
+        <v>2151.392327657603</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.426554609524</v>
+        <v>2498.899221627945</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473857</v>
+        <v>2521.619329473864</v>
       </c>
       <c r="R7" t="n">
-        <v>2500.201508179229</v>
+        <v>2521.619329473864</v>
       </c>
       <c r="S7" t="n">
-        <v>2340.960139477225</v>
+        <v>2362.37796077186</v>
       </c>
       <c r="T7" t="n">
-        <v>2095.080693055681</v>
+        <v>2116.498514350315</v>
       </c>
       <c r="U7" t="n">
-        <v>2095.080693055681</v>
+        <v>1838.065513603421</v>
       </c>
       <c r="V7" t="n">
-        <v>1808.125184926111</v>
+        <v>1551.110005473851</v>
       </c>
       <c r="W7" t="n">
-        <v>1536.098780512403</v>
+        <v>1279.083601060143</v>
       </c>
       <c r="X7" t="n">
-        <v>1290.707025845815</v>
+        <v>1033.691846393555</v>
       </c>
       <c r="Y7" t="n">
-        <v>1063.287355159923</v>
+        <v>806.2721757076633</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1789.512437976118</v>
+        <v>1385.055244562854</v>
       </c>
       <c r="C8" t="n">
-        <v>1351.369965159541</v>
+        <v>946.912771746277</v>
       </c>
       <c r="D8" t="n">
-        <v>915.4601803339856</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E8" t="n">
-        <v>481.6854354922808</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4810,13 +4810,13 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
@@ -4834,22 +4834,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2449.993599304466</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V8" t="n">
-        <v>2449.993599304466</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="W8" t="n">
-        <v>2449.178548755904</v>
+        <v>2005.983069159478</v>
       </c>
       <c r="X8" t="n">
-        <v>2434.076489375619</v>
+        <v>1990.881009779192</v>
       </c>
       <c r="Y8" t="n">
-        <v>2215.812008461025</v>
+        <v>1582.594886078846</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4998,16 +4998,16 @@
         <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056492</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1160.715522056492</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5044,25 +5044,25 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2769.623329187108</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="N11" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O11" t="n">
-        <v>3895.354312623555</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P11" t="n">
-        <v>4723.664187456951</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q11" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R11" t="n">
         <v>5113.04201353898</v>
@@ -5080,13 +5080,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5099,16 +5099,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D12" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E12" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F12" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G12" t="n">
         <v>143.9964924545671</v>
@@ -5120,28 +5120,28 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>809.0580335016145</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>809.0580335016145</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>809.0580335016145</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
         <v>1765.500601749588</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1017.756527079651</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C13" t="n">
-        <v>1008.757289365886</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D13" t="n">
-        <v>842.8792965674086</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E13" t="n">
-        <v>673.1212928181459</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F13" t="n">
-        <v>496.4142387799021</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G13" t="n">
-        <v>330.8229638057297</v>
+        <v>190.9207894961042</v>
       </c>
       <c r="H13" t="n">
-        <v>190.9207894961043</v>
+        <v>190.9207894961042</v>
       </c>
       <c r="I13" t="n">
         <v>102.2608402707796</v>
@@ -5232,19 +5232,19 @@
         <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>2013.948813008508</v>
+        <v>2019.637028521192</v>
       </c>
       <c r="V13" t="n">
-        <v>1726.993304878934</v>
+        <v>1732.681520391623</v>
       </c>
       <c r="W13" t="n">
-        <v>1454.966900465226</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="X13" t="n">
-        <v>1209.575145798638</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y13" t="n">
-        <v>1209.575145798638</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="14">
@@ -5269,7 +5269,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H14" t="n">
         <v>102.6776296436396</v>
@@ -5290,31 +5290,31 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P14" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R14" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W14" t="n">
         <v>3782.628205257733</v>
@@ -5323,7 +5323,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5336,16 +5336,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D15" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E15" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F15" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G15" t="n">
         <v>143.9964924545671</v>
@@ -5354,31 +5354,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1625.543999329491</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
         <v>1765.500601749588</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1004.611946844417</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C16" t="n">
-        <v>832.0502353276421</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D16" t="n">
-        <v>666.1722425291648</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E16" t="n">
-        <v>496.4142387799021</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5460,28 +5460,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2560.717731908614</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T16" t="n">
-        <v>2314.838285487069</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U16" t="n">
-        <v>2036.405284740174</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V16" t="n">
-        <v>1749.449776610605</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W16" t="n">
-        <v>1477.423372196896</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X16" t="n">
-        <v>1232.031617530309</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y16" t="n">
-        <v>1004.611946844417</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="17">
@@ -5506,7 +5506,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5515,31 +5515,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>4294.449917128814</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
         <v>5029.390139722817</v>
@@ -5554,13 +5554,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937634</v>
+        <v>875.8255515988632</v>
       </c>
       <c r="C19" t="n">
-        <v>617.7751448769883</v>
+        <v>703.2638400820881</v>
       </c>
       <c r="D19" t="n">
-        <v>451.897152078511</v>
+        <v>537.3858472836108</v>
       </c>
       <c r="E19" t="n">
-        <v>282.1391483292483</v>
+        <v>367.6278435343481</v>
       </c>
       <c r="F19" t="n">
         <v>190.9207894961043</v>
@@ -5712,13 +5712,13 @@
         <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1540.45559567033</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1295.063841003742</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127505</v>
+        <v>1067.64417031785</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5761,43 +5761,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5834,25 +5834,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3346.878440713113</v>
+        <v>1035.728611060351</v>
       </c>
       <c r="C22" t="n">
-        <v>3174.316729196338</v>
+        <v>863.1668995435758</v>
       </c>
       <c r="D22" t="n">
-        <v>3008.438736397861</v>
+        <v>697.2889067450985</v>
       </c>
       <c r="E22" t="n">
-        <v>2838.680732648598</v>
+        <v>527.5309029958357</v>
       </c>
       <c r="F22" t="n">
-        <v>2661.973678610354</v>
+        <v>350.823848957592</v>
       </c>
       <c r="G22" t="n">
-        <v>2496.382403636182</v>
+        <v>185.2325739834196</v>
       </c>
       <c r="H22" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>5094.802844496297</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>4848.923398074752</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>4570.490397327858</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>4283.534889198289</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>4011.50848478458</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>3766.116730117992</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="Y22" t="n">
-        <v>3538.697059432101</v>
+        <v>1227.547229779338</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1632.322702740236</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>1632.322702740236</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6068,25 +6068,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>414.500552094942</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>473.3149733731391</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>473.3149733731391</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>307.7236983989667</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>167.8215240893413</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6174,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1039.174348374283</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C28" t="n">
-        <v>866.6126368575082</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D28" t="n">
-        <v>700.7346440590309</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E28" t="n">
-        <v>530.9766403097681</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F28" t="n">
-        <v>354.2695862715243</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6429,7 +6429,7 @@
         <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>1230.99296709327</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>915.9519976190925</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C34" t="n">
-        <v>743.3902861023174</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D34" t="n">
-        <v>577.5122933038401</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E34" t="n">
-        <v>407.7542895545774</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F34" t="n">
-        <v>407.7542895545774</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G34" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2663.876401402276</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2417.996954980732</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2139.563954233837</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>1852.608446104267</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>1580.582041690559</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X34" t="n">
-        <v>1335.190287023971</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y34" t="n">
-        <v>1107.77061633808</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
         <v>1654.847790009657</v>
@@ -6925,61 +6925,61 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
         <v>2955.199618136697</v>
@@ -7013,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>3137.402081918264</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>4117.581748488571</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4945.891623321967</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
         <v>5113.042013538981</v>
@@ -7250,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>790.3368563937634</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C40" t="n">
-        <v>790.3368563937634</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D40" t="n">
-        <v>624.4588635952861</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E40" t="n">
-        <v>624.4588635952861</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798642</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127505</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="41">
@@ -7405,37 +7405,37 @@
         <v>391.8077842004232</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
         <v>5029.390139722817</v>
@@ -7493,22 +7493,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
         <v>1648.327823655249</v>
@@ -7596,25 +7596,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2700.681281130898</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2454.801834709353</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2176.368833962459</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1889.413325832889</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1617.386921419181</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1371.995166752593</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.575496066702</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2627364873778</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1632.322702740237</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>1632.322702740237</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
         <v>5113.042013538981</v>
@@ -7693,7 +7693,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>952.7568773477108</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C46" t="n">
-        <v>780.1951658309357</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D46" t="n">
-        <v>614.3171730324584</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E46" t="n">
-        <v>444.5591692831957</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F46" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G46" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7830,28 +7830,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T46" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U46" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V46" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W46" t="n">
-        <v>1617.386921419177</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X46" t="n">
-        <v>1371.99516675259</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y46" t="n">
-        <v>1144.575496066698</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
   </sheetData>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8060,22 +8060,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>369.8475292559658</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,22 +8218,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684641</v>
+        <v>630.4048323684658</v>
       </c>
       <c r="L5" t="n">
-        <v>72.80589558611246</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>72.80589558611564</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.404832368466</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684642</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.404832368466</v>
       </c>
       <c r="L6" t="n">
-        <v>630.4048323684642</v>
+        <v>30.9144066474164</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>385.078041118802</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8382,7 +8382,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>317.1830304671648</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -8394,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>22.94960388476647</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8458,16 +8458,16 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8534,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8692,25 +8692,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>222.4482437666393</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8768,10 +8768,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8780,19 +8780,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>966.1036042908828</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8938,7 +8938,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -9014,22 +9014,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>141.3703054748453</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9172,22 +9172,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>826.8607034446131</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,19 +9239,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1133.8392149967</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9482,7 +9482,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>92.06596429261208</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>702.7389601124028</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9661,7 +9661,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,19 +9716,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>289.0667057209139</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9950,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10834,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10843,10 +10843,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>168.8387779969844</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -11071,7 +11071,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>753.9218057523904</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11083,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>459.5978749662608</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
@@ -11308,7 +11308,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11320,7 +11320,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>161.92684906498</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>5.631333357557594</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>22.23190701434984</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>84.63380825304883</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>84.63380825304878</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>56.36113619101562</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>22.86827275269539</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>52.94985625022261</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25086,13 +25086,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>103.1553467313937</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>48.17580493063124</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>120.446375214272</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627294</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>248.5691704774794</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>537165.6058947798</v>
+        <v>537165.6058947799</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>554537.631225601</v>
+        <v>554537.6312256011</v>
       </c>
     </row>
     <row r="6">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>554537.631225601</v>
+        <v>554537.6312256011</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>554537.6312256011</v>
+        <v>554537.631225601</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>554537.631225601</v>
+        <v>554537.6312256011</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>554537.6312256011</v>
+        <v>554537.6312256012</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>442321.538909587</v>
+        <v>442321.5389095869</v>
       </c>
       <c r="C2" t="n">
-        <v>442321.538909587</v>
+        <v>442321.5389095869</v>
       </c>
       <c r="D2" t="n">
         <v>442321.538909587</v>
@@ -26325,7 +26325,7 @@
         <v>434657.5069133156</v>
       </c>
       <c r="F2" t="n">
-        <v>434657.5069133157</v>
+        <v>434657.5069133156</v>
       </c>
       <c r="G2" t="n">
         <v>434657.5069133156</v>
@@ -26334,28 +26334,28 @@
         <v>434657.5069133156</v>
       </c>
       <c r="I2" t="n">
+        <v>434657.5069133157</v>
+      </c>
+      <c r="J2" t="n">
+        <v>434657.5069133157</v>
+      </c>
+      <c r="K2" t="n">
         <v>434657.5069133156</v>
       </c>
-      <c r="J2" t="n">
-        <v>434657.5069133156</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>434657.5069133157</v>
       </c>
-      <c r="L2" t="n">
-        <v>434657.5069133156</v>
-      </c>
       <c r="M2" t="n">
-        <v>434657.5069133156</v>
+        <v>434657.5069133157</v>
       </c>
       <c r="N2" t="n">
-        <v>434657.5069133156</v>
+        <v>434657.5069133158</v>
       </c>
       <c r="O2" t="n">
-        <v>434657.5069133156</v>
+        <v>434657.5069133157</v>
       </c>
       <c r="P2" t="n">
-        <v>434657.5069133156</v>
+        <v>434657.5069133158</v>
       </c>
     </row>
     <row r="3">
@@ -26368,10 +26368,10 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501635</v>
+        <v>66587.76789501692</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998258</v>
+        <v>11527.59554998204</v>
       </c>
       <c r="E3" t="n">
         <v>182355.1092210497</v>
@@ -26392,10 +26392,10 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877267</v>
+        <v>53045.85463877313</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622163</v>
+        <v>9392.301726621718</v>
       </c>
       <c r="M3" t="n">
         <v>152200.1709379876</v>
@@ -26420,28 +26420,28 @@
         <v>199828.8262465156</v>
       </c>
       <c r="C4" t="n">
-        <v>163226.8987932457</v>
+        <v>163226.8987932454</v>
       </c>
       <c r="D4" t="n">
         <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>68000.69828933274</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="F4" t="n">
-        <v>68000.69828933275</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="G4" t="n">
-        <v>68000.69828933278</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="H4" t="n">
-        <v>68000.69828933277</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="I4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="J4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="K4" t="n">
         <v>68000.69828933279</v>
@@ -26450,16 +26450,16 @@
         <v>68000.69828933281</v>
       </c>
       <c r="M4" t="n">
-        <v>68000.69828933278</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="N4" t="n">
-        <v>68000.69828933274</v>
+        <v>68000.69828933282</v>
       </c>
       <c r="O4" t="n">
-        <v>68000.69828933274</v>
+        <v>68000.69828933282</v>
       </c>
       <c r="P4" t="n">
-        <v>68000.69828933275</v>
+        <v>68000.69828933282</v>
       </c>
     </row>
     <row r="5">
@@ -26472,22 +26472,22 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800262</v>
+        <v>71956.21380800272</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
+        <v>77718.23860579249</v>
+      </c>
+      <c r="F5" t="n">
+        <v>77718.23860579249</v>
+      </c>
+      <c r="G5" t="n">
         <v>77718.2386057925</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>77718.2386057925</v>
-      </c>
-      <c r="G5" t="n">
-        <v>77718.23860579252</v>
-      </c>
-      <c r="H5" t="n">
-        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>40876.62386613919</v>
+        <v>40876.62386613905</v>
       </c>
       <c r="C6" t="n">
-        <v>140550.6584133224</v>
+        <v>140550.6584133219</v>
       </c>
       <c r="D6" t="n">
-        <v>199944.777545173</v>
+        <v>199944.7775451734</v>
       </c>
       <c r="E6" t="n">
-        <v>106583.4607971406</v>
+        <v>106560.236457758</v>
       </c>
       <c r="F6" t="n">
-        <v>288938.5700181904</v>
+        <v>288915.3456788076</v>
       </c>
       <c r="G6" t="n">
-        <v>288938.5700181903</v>
+        <v>288915.3456788076</v>
       </c>
       <c r="H6" t="n">
-        <v>288938.5700181903</v>
+        <v>288915.3456788076</v>
       </c>
       <c r="I6" t="n">
-        <v>288938.5700181903</v>
+        <v>288915.3456788077</v>
       </c>
       <c r="J6" t="n">
-        <v>177924.1046732001</v>
+        <v>177900.8803338175</v>
       </c>
       <c r="K6" t="n">
-        <v>235892.7153794177</v>
+        <v>235869.4910400345</v>
       </c>
       <c r="L6" t="n">
-        <v>279546.2682915682</v>
+        <v>279523.043952186</v>
       </c>
       <c r="M6" t="n">
-        <v>136738.3990802027</v>
+        <v>136715.1747408202</v>
       </c>
       <c r="N6" t="n">
-        <v>288938.5700181904</v>
+        <v>288915.3456788078</v>
       </c>
       <c r="O6" t="n">
-        <v>288938.5700181903</v>
+        <v>288915.3456788076</v>
       </c>
       <c r="P6" t="n">
-        <v>288938.5700181904</v>
+        <v>288915.3456788078</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684642</v>
+        <v>630.4048323684659</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -27014,13 +27014,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483598</v>
+        <v>206.1089748483616</v>
       </c>
       <c r="D4" t="n">
-        <v>37.1103742393928</v>
+        <v>37.11037423939104</v>
       </c>
       <c r="E4" t="n">
-        <v>610.7452967768882</v>
+        <v>610.7452967768879</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483598</v>
+        <v>206.1089748483616</v>
       </c>
       <c r="L4" t="n">
-        <v>37.1103742393928</v>
+        <v>37.11037423939104</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768882</v>
+        <v>610.7452967768879</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483598</v>
+        <v>206.1089748483616</v>
       </c>
       <c r="L4" t="n">
-        <v>37.1103742393928</v>
+        <v>37.11037423939104</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768882</v>
+        <v>610.7452967768879</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>271.0398895526697</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
-      </c>
-      <c r="C2" t="n">
-        <v>9.465190568306582</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>177.2070880782912</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -27444,10 +27444,10 @@
         <v>400</v>
       </c>
       <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>400</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>114.0287657172009</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>230.1236989422015</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>12.33857484709496</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>72.85097093682009</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>2.667000230431654</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>87.38116894104812</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27830,7 +27830,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>226.4723296792265</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27873,7 +27873,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>188.1214263578959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>161.9268490649754</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28070,16 +28070,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>102.9863699957345</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34780,22 +34780,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>369.8475292559658</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684641</v>
+        <v>630.4048323684658</v>
       </c>
       <c r="L5" t="n">
-        <v>72.80589558611246</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>72.80589558611564</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.404832368466</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684642</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.404832368466</v>
       </c>
       <c r="L6" t="n">
-        <v>630.4048323684642</v>
+        <v>30.9144066474164</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>385.078041118802</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>317.1830304671648</v>
+        <v>464.1251183645589</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>22.94960388476647</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35178,16 +35178,16 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35254,7 +35254,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35269,10 +35269,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35412,25 +35412,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081364</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>222.4482437666393</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
         <v>170.862691669754</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35500,19 +35500,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>966.1036042908828</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35658,7 +35658,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -35734,22 +35734,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>141.3703054748453</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>826.8607034446131</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1133.8392149967</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36129,10 +36129,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36217,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>92.06596429261208</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36293,13 +36293,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>702.7389601124028</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36381,7 +36381,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,19 +36436,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>289.0667057209139</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36691,13 +36691,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36925,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37168,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37405,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37554,19 +37554,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>168.8387779969844</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37636,16 +37636,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37791,7 +37791,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>753.9218057523904</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37803,7 +37803,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>459.5978749662608</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
@@ -38028,7 +38028,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38040,7 +38040,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
